--- a/tasks/mcra/examples/task_input/test_mcra_action_template/Data/Effects.xlsx
+++ b/tasks/mcra/examples/task_input/test_mcra_action_template/Data/Effects.xlsx
@@ -651,12 +651,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Liver effect</t>
+          <t>AChE inhibition</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test effect</t>
+          <t>Acetylcholinesterase inhibition in liver tissue</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -666,24 +666,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Metabolism</t>
+          <t>Neurotransmission</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Acetylcholinesterase</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Liver</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Liver</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Hepatocyte</t>
@@ -694,9 +694,10 @@
           <t>Acute</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Internal test</t>
+          <t>Synthetic test data</t>
         </is>
       </c>
       <c r="N2" t="b">
@@ -706,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
